--- a/Portfolio_20231124 - Copyright.xlsx
+++ b/Portfolio_20231124 - Copyright.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibf_pmp3\Documents\Managers 23_24\Xuanzhe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibf_pmp3\Documents\Managers 23_24\Xuanzhe\20231124\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3444DC9D-D925-45F5-8908-947188315F3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4946C389-11D8-4A9D-AD13-AC57E35C44EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="837" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="837" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="15" r:id="rId1"/>
@@ -3204,6 +3204,15 @@
     <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3239,15 +3248,6 @@
     </xf>
     <xf numFmtId="165" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4318,118 +4318,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="373" t="s">
+      <c r="A1" s="376" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="374"/>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
-      <c r="N1" s="374"/>
-      <c r="O1" s="374"/>
+      <c r="B1" s="377"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
+      <c r="H1" s="377"/>
+      <c r="I1" s="377"/>
+      <c r="J1" s="377"/>
+      <c r="K1" s="377"/>
+      <c r="L1" s="377"/>
+      <c r="M1" s="377"/>
+      <c r="N1" s="377"/>
+      <c r="O1" s="377"/>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" s="374"/>
-      <c r="B2" s="374"/>
-      <c r="C2" s="374"/>
-      <c r="D2" s="374"/>
-      <c r="E2" s="374"/>
-      <c r="F2" s="374"/>
-      <c r="G2" s="374"/>
-      <c r="H2" s="374"/>
-      <c r="I2" s="374"/>
-      <c r="J2" s="374"/>
-      <c r="K2" s="374"/>
-      <c r="L2" s="374"/>
-      <c r="M2" s="374"/>
-      <c r="N2" s="374"/>
-      <c r="O2" s="374"/>
+      <c r="A2" s="377"/>
+      <c r="B2" s="377"/>
+      <c r="C2" s="377"/>
+      <c r="D2" s="377"/>
+      <c r="E2" s="377"/>
+      <c r="F2" s="377"/>
+      <c r="G2" s="377"/>
+      <c r="H2" s="377"/>
+      <c r="I2" s="377"/>
+      <c r="J2" s="377"/>
+      <c r="K2" s="377"/>
+      <c r="L2" s="377"/>
+      <c r="M2" s="377"/>
+      <c r="N2" s="377"/>
+      <c r="O2" s="377"/>
     </row>
     <row r="3" spans="1:28" s="7" customFormat="1">
-      <c r="A3" s="375" t="s">
+      <c r="A3" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="375" t="s">
+      <c r="B3" s="378" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="375" t="s">
+      <c r="C3" s="378" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="375" t="s">
+      <c r="D3" s="378" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="375" t="s">
+      <c r="E3" s="378" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="375" t="s">
+      <c r="F3" s="378" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="375" t="s">
+      <c r="G3" s="378" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="375" t="s">
+      <c r="H3" s="378" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="377" t="s">
+      <c r="I3" s="380" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="383" t="s">
+      <c r="J3" s="386" t="s">
         <v>191</v>
       </c>
-      <c r="K3" s="379" t="s">
+      <c r="K3" s="382" t="s">
         <v>325</v>
       </c>
-      <c r="L3" s="383" t="s">
+      <c r="L3" s="386" t="s">
         <v>113</v>
       </c>
-      <c r="M3" s="379" t="s">
+      <c r="M3" s="382" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="381" t="s">
+      <c r="N3" s="384" t="s">
         <v>118</v>
       </c>
-      <c r="O3" s="381"/>
-      <c r="P3" s="381"/>
-      <c r="Q3" s="381"/>
-      <c r="R3" s="381"/>
-      <c r="S3" s="381"/>
-      <c r="T3" s="381"/>
-      <c r="U3" s="381"/>
-      <c r="V3" s="381"/>
-      <c r="W3" s="381"/>
+      <c r="O3" s="384"/>
+      <c r="P3" s="384"/>
+      <c r="Q3" s="384"/>
+      <c r="R3" s="384"/>
+      <c r="S3" s="384"/>
+      <c r="T3" s="384"/>
+      <c r="U3" s="384"/>
+      <c r="V3" s="384"/>
+      <c r="W3" s="384"/>
     </row>
     <row r="4" spans="1:28" s="7" customFormat="1">
-      <c r="A4" s="376"/>
-      <c r="B4" s="376"/>
-      <c r="C4" s="376"/>
-      <c r="D4" s="376"/>
-      <c r="E4" s="376"/>
-      <c r="F4" s="376"/>
-      <c r="G4" s="376"/>
-      <c r="H4" s="376"/>
-      <c r="I4" s="378"/>
-      <c r="J4" s="384"/>
-      <c r="K4" s="380"/>
-      <c r="L4" s="384"/>
-      <c r="M4" s="380"/>
-      <c r="N4" s="382"/>
-      <c r="O4" s="382"/>
-      <c r="P4" s="382"/>
-      <c r="Q4" s="382"/>
-      <c r="R4" s="382"/>
-      <c r="S4" s="382"/>
-      <c r="T4" s="382"/>
-      <c r="U4" s="382"/>
-      <c r="V4" s="382"/>
-      <c r="W4" s="382"/>
+      <c r="A4" s="379"/>
+      <c r="B4" s="379"/>
+      <c r="C4" s="379"/>
+      <c r="D4" s="379"/>
+      <c r="E4" s="379"/>
+      <c r="F4" s="379"/>
+      <c r="G4" s="379"/>
+      <c r="H4" s="379"/>
+      <c r="I4" s="381"/>
+      <c r="J4" s="387"/>
+      <c r="K4" s="383"/>
+      <c r="L4" s="387"/>
+      <c r="M4" s="383"/>
+      <c r="N4" s="385"/>
+      <c r="O4" s="385"/>
+      <c r="P4" s="385"/>
+      <c r="Q4" s="385"/>
+      <c r="R4" s="385"/>
+      <c r="S4" s="385"/>
+      <c r="T4" s="385"/>
+      <c r="U4" s="385"/>
+      <c r="V4" s="385"/>
+      <c r="W4" s="385"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
@@ -9185,66 +9185,66 @@
       <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="387" t="s">
+      <c r="B1" s="375" t="s">
         <v>522</v>
       </c>
-      <c r="C1" s="387" t="s">
+      <c r="C1" s="375" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="387" t="s">
+      <c r="D1" s="375" t="s">
         <v>507</v>
       </c>
-      <c r="E1" s="387" t="s">
+      <c r="E1" s="375" t="s">
         <v>508</v>
       </c>
-      <c r="F1" s="387" t="s">
+      <c r="F1" s="375" t="s">
         <v>509</v>
       </c>
-      <c r="G1" s="387" t="s">
+      <c r="G1" s="375" t="s">
         <v>254</v>
       </c>
-      <c r="H1" s="387" t="s">
+      <c r="H1" s="375" t="s">
         <v>510</v>
       </c>
-      <c r="I1" s="387" t="s">
+      <c r="I1" s="375" t="s">
         <v>511</v>
       </c>
-      <c r="J1" s="387" t="s">
+      <c r="J1" s="375" t="s">
         <v>512</v>
       </c>
-      <c r="K1" s="387" t="s">
+      <c r="K1" s="375" t="s">
         <v>513</v>
       </c>
-      <c r="L1" s="387" t="s">
+      <c r="L1" s="375" t="s">
         <v>514</v>
       </c>
-      <c r="M1" s="387" t="s">
+      <c r="M1" s="375" t="s">
         <v>103</v>
       </c>
-      <c r="N1" s="387" t="s">
+      <c r="N1" s="375" t="s">
         <v>515</v>
       </c>
-      <c r="O1" s="387" t="s">
+      <c r="O1" s="375" t="s">
         <v>516</v>
       </c>
-      <c r="P1" s="387" t="s">
+      <c r="P1" s="375" t="s">
         <v>517</v>
       </c>
-      <c r="Q1" s="387" t="s">
+      <c r="Q1" s="375" t="s">
         <v>518</v>
       </c>
-      <c r="R1" s="387" t="s">
+      <c r="R1" s="375" t="s">
         <v>519</v>
       </c>
-      <c r="S1" s="387" t="s">
+      <c r="S1" s="375" t="s">
         <v>520</v>
       </c>
-      <c r="T1" s="387" t="s">
+      <c r="T1" s="375" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="385">
+      <c r="A2" s="373">
         <v>45051</v>
       </c>
       <c r="B2" s="99">
@@ -9306,7 +9306,7 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="385">
+      <c r="A3" s="373">
         <v>45054</v>
       </c>
       <c r="B3" s="99">
@@ -9368,7 +9368,7 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="385">
+      <c r="A4" s="373">
         <v>45055</v>
       </c>
       <c r="B4" s="99">
@@ -9430,7 +9430,7 @@
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="385">
+      <c r="A5" s="373">
         <v>45056</v>
       </c>
       <c r="B5" s="99">
@@ -9492,7 +9492,7 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="385">
+      <c r="A6" s="373">
         <v>45057</v>
       </c>
       <c r="B6" s="99">
@@ -9554,7 +9554,7 @@
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="385">
+      <c r="A7" s="373">
         <v>45058</v>
       </c>
       <c r="B7" s="99">
@@ -9616,7 +9616,7 @@
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="385">
+      <c r="A8" s="373">
         <v>45061</v>
       </c>
       <c r="B8" s="99">
@@ -9678,7 +9678,7 @@
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="385">
+      <c r="A9" s="373">
         <v>45062</v>
       </c>
       <c r="B9" s="99">
@@ -9740,7 +9740,7 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="385">
+      <c r="A10" s="373">
         <v>45063</v>
       </c>
       <c r="B10" s="99">
@@ -9802,7 +9802,7 @@
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="385">
+      <c r="A11" s="373">
         <v>45064</v>
       </c>
       <c r="B11" s="99">
@@ -9864,7 +9864,7 @@
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="385">
+      <c r="A12" s="373">
         <v>45065</v>
       </c>
       <c r="B12" s="99">
@@ -9926,7 +9926,7 @@
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="385">
+      <c r="A13" s="373">
         <v>45068</v>
       </c>
       <c r="B13" s="99">
@@ -9988,7 +9988,7 @@
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="385">
+      <c r="A14" s="373">
         <v>45069</v>
       </c>
       <c r="B14" s="99">
@@ -10050,7 +10050,7 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="385">
+      <c r="A15" s="373">
         <v>45070</v>
       </c>
       <c r="B15" s="99">
@@ -10112,7 +10112,7 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="385">
+      <c r="A16" s="373">
         <v>45071</v>
       </c>
       <c r="B16" s="99">
@@ -10174,7 +10174,7 @@
       </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="385">
+      <c r="A17" s="373">
         <v>45072</v>
       </c>
       <c r="B17" s="99">
@@ -10236,7 +10236,7 @@
       </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="385">
+      <c r="A18" s="373">
         <v>45075</v>
       </c>
       <c r="B18" s="99">
@@ -10298,7 +10298,7 @@
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="385">
+      <c r="A19" s="373">
         <v>45076</v>
       </c>
       <c r="B19" s="99">
@@ -10360,7 +10360,7 @@
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="385">
+      <c r="A20" s="373">
         <v>45077</v>
       </c>
       <c r="B20" s="99">
@@ -10422,7 +10422,7 @@
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="385">
+      <c r="A21" s="373">
         <v>45078</v>
       </c>
       <c r="B21" s="99">
@@ -10484,7 +10484,7 @@
       </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="385">
+      <c r="A22" s="373">
         <v>45079</v>
       </c>
       <c r="B22" s="99">
@@ -10546,7 +10546,7 @@
       </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="385">
+      <c r="A23" s="373">
         <v>45082</v>
       </c>
       <c r="B23" s="99">
@@ -10608,7 +10608,7 @@
       </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="385">
+      <c r="A24" s="373">
         <v>45083</v>
       </c>
       <c r="B24" s="99">
@@ -10670,7 +10670,7 @@
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="385">
+      <c r="A25" s="373">
         <v>45084</v>
       </c>
       <c r="B25" s="99">
@@ -10732,7 +10732,7 @@
       </c>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="385">
+      <c r="A26" s="373">
         <v>45085</v>
       </c>
       <c r="B26" s="99">
@@ -10794,7 +10794,7 @@
       </c>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="385">
+      <c r="A27" s="373">
         <v>45086</v>
       </c>
       <c r="B27" s="99">
@@ -10856,7 +10856,7 @@
       </c>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="385">
+      <c r="A28" s="373">
         <v>45089</v>
       </c>
       <c r="B28" s="99">
@@ -10918,7 +10918,7 @@
       </c>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="385">
+      <c r="A29" s="373">
         <v>45090</v>
       </c>
       <c r="B29" s="99">
@@ -10980,7 +10980,7 @@
       </c>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="385">
+      <c r="A30" s="373">
         <v>45091</v>
       </c>
       <c r="B30" s="99">
@@ -11042,7 +11042,7 @@
       </c>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="385">
+      <c r="A31" s="373">
         <v>45092</v>
       </c>
       <c r="B31" s="99">
@@ -11104,7 +11104,7 @@
       </c>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="385">
+      <c r="A32" s="373">
         <v>45093</v>
       </c>
       <c r="B32" s="99">
@@ -11166,7 +11166,7 @@
       </c>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="385">
+      <c r="A33" s="373">
         <v>45096</v>
       </c>
       <c r="B33" s="99">
@@ -11228,7 +11228,7 @@
       </c>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="385">
+      <c r="A34" s="373">
         <v>45097</v>
       </c>
       <c r="B34" s="99">
@@ -11290,7 +11290,7 @@
       </c>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="385">
+      <c r="A35" s="373">
         <v>45098</v>
       </c>
       <c r="B35" s="99">
@@ -11352,7 +11352,7 @@
       </c>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="385">
+      <c r="A36" s="373">
         <v>45099</v>
       </c>
       <c r="B36" s="99">
@@ -11414,7 +11414,7 @@
       </c>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="385">
+      <c r="A37" s="373">
         <v>45100</v>
       </c>
       <c r="B37" s="99">
@@ -11476,7 +11476,7 @@
       </c>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" s="385">
+      <c r="A38" s="373">
         <v>45103</v>
       </c>
       <c r="B38" s="99">
@@ -11538,7 +11538,7 @@
       </c>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="385">
+      <c r="A39" s="373">
         <v>45104</v>
       </c>
       <c r="B39" s="99">
@@ -11600,7 +11600,7 @@
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="385">
+      <c r="A40" s="373">
         <v>45105</v>
       </c>
       <c r="B40" s="99">
@@ -11662,7 +11662,7 @@
       </c>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="385">
+      <c r="A41" s="373">
         <v>45106</v>
       </c>
       <c r="B41" s="99">
@@ -11724,7 +11724,7 @@
       </c>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="385">
+      <c r="A42" s="373">
         <v>45107</v>
       </c>
       <c r="B42" s="99">
@@ -11786,7 +11786,7 @@
       </c>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="385">
+      <c r="A43" s="373">
         <v>45110</v>
       </c>
       <c r="B43" s="99">
@@ -11848,7 +11848,7 @@
       </c>
     </row>
     <row r="44" spans="1:20">
-      <c r="A44" s="385">
+      <c r="A44" s="373">
         <v>45111</v>
       </c>
       <c r="B44" s="99">
@@ -11910,7 +11910,7 @@
       </c>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" s="385">
+      <c r="A45" s="373">
         <v>45112</v>
       </c>
       <c r="B45" s="99">
@@ -11972,7 +11972,7 @@
       </c>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="385">
+      <c r="A46" s="373">
         <v>45113</v>
       </c>
       <c r="B46" s="99">
@@ -12034,7 +12034,7 @@
       </c>
     </row>
     <row r="47" spans="1:20">
-      <c r="A47" s="385">
+      <c r="A47" s="373">
         <v>45114</v>
       </c>
       <c r="B47" s="99">
@@ -12096,7 +12096,7 @@
       </c>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="385">
+      <c r="A48" s="373">
         <v>45117</v>
       </c>
       <c r="B48" s="99">
@@ -12158,7 +12158,7 @@
       </c>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" s="385">
+      <c r="A49" s="373">
         <v>45118</v>
       </c>
       <c r="B49" s="99">
@@ -12220,7 +12220,7 @@
       </c>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="385">
+      <c r="A50" s="373">
         <v>45119</v>
       </c>
       <c r="B50" s="99">
@@ -12282,7 +12282,7 @@
       </c>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="385">
+      <c r="A51" s="373">
         <v>45120</v>
       </c>
       <c r="B51" s="99">
@@ -12344,7 +12344,7 @@
       </c>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="385">
+      <c r="A52" s="373">
         <v>45121</v>
       </c>
       <c r="B52" s="99">
@@ -12406,7 +12406,7 @@
       </c>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="385">
+      <c r="A53" s="373">
         <v>45124</v>
       </c>
       <c r="B53" s="99">
@@ -12468,7 +12468,7 @@
       </c>
     </row>
     <row r="54" spans="1:20">
-      <c r="A54" s="385">
+      <c r="A54" s="373">
         <v>45125</v>
       </c>
       <c r="B54" s="99">
@@ -12530,7 +12530,7 @@
       </c>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" s="385">
+      <c r="A55" s="373">
         <v>45126</v>
       </c>
       <c r="B55" s="99">
@@ -12592,7 +12592,7 @@
       </c>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="385">
+      <c r="A56" s="373">
         <v>45127</v>
       </c>
       <c r="B56" s="99">
@@ -12654,7 +12654,7 @@
       </c>
     </row>
     <row r="57" spans="1:20">
-      <c r="A57" s="385">
+      <c r="A57" s="373">
         <v>45128</v>
       </c>
       <c r="B57" s="99">
@@ -12716,7 +12716,7 @@
       </c>
     </row>
     <row r="58" spans="1:20">
-      <c r="A58" s="385">
+      <c r="A58" s="373">
         <v>45131</v>
       </c>
       <c r="B58" s="99">
@@ -12778,7 +12778,7 @@
       </c>
     </row>
     <row r="59" spans="1:20">
-      <c r="A59" s="385">
+      <c r="A59" s="373">
         <v>45132</v>
       </c>
       <c r="B59" s="99">
@@ -12840,7 +12840,7 @@
       </c>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="385">
+      <c r="A60" s="373">
         <v>45133</v>
       </c>
       <c r="B60" s="99">
@@ -12902,7 +12902,7 @@
       </c>
     </row>
     <row r="61" spans="1:20">
-      <c r="A61" s="385">
+      <c r="A61" s="373">
         <v>45134</v>
       </c>
       <c r="B61" s="99">
@@ -12964,7 +12964,7 @@
       </c>
     </row>
     <row r="62" spans="1:20">
-      <c r="A62" s="385">
+      <c r="A62" s="373">
         <v>45135</v>
       </c>
       <c r="B62" s="99">
@@ -13026,7 +13026,7 @@
       </c>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="385">
+      <c r="A63" s="373">
         <v>45138</v>
       </c>
       <c r="B63" s="99">
@@ -13088,7 +13088,7 @@
       </c>
     </row>
     <row r="64" spans="1:20">
-      <c r="A64" s="385">
+      <c r="A64" s="373">
         <v>45139</v>
       </c>
       <c r="B64" s="99">
@@ -13150,7 +13150,7 @@
       </c>
     </row>
     <row r="65" spans="1:20">
-      <c r="A65" s="385">
+      <c r="A65" s="373">
         <v>45140</v>
       </c>
       <c r="B65" s="99">
@@ -13212,7 +13212,7 @@
       </c>
     </row>
     <row r="66" spans="1:20">
-      <c r="A66" s="385">
+      <c r="A66" s="373">
         <v>45141</v>
       </c>
       <c r="B66" s="99">
@@ -13274,7 +13274,7 @@
       </c>
     </row>
     <row r="67" spans="1:20">
-      <c r="A67" s="385">
+      <c r="A67" s="373">
         <v>45142</v>
       </c>
       <c r="B67" s="99">
@@ -13336,7 +13336,7 @@
       </c>
     </row>
     <row r="68" spans="1:20">
-      <c r="A68" s="385">
+      <c r="A68" s="373">
         <v>45145</v>
       </c>
       <c r="B68" s="99">
@@ -13398,7 +13398,7 @@
       </c>
     </row>
     <row r="69" spans="1:20">
-      <c r="A69" s="385">
+      <c r="A69" s="373">
         <v>45146</v>
       </c>
       <c r="B69" s="99">
@@ -13460,7 +13460,7 @@
       </c>
     </row>
     <row r="70" spans="1:20">
-      <c r="A70" s="385">
+      <c r="A70" s="373">
         <v>45147</v>
       </c>
       <c r="B70" s="99">
@@ -13522,7 +13522,7 @@
       </c>
     </row>
     <row r="71" spans="1:20">
-      <c r="A71" s="385">
+      <c r="A71" s="373">
         <v>45148</v>
       </c>
       <c r="B71" s="99">
@@ -13584,7 +13584,7 @@
       </c>
     </row>
     <row r="72" spans="1:20">
-      <c r="A72" s="385">
+      <c r="A72" s="373">
         <v>45149</v>
       </c>
       <c r="B72" s="99">
@@ -13646,7 +13646,7 @@
       </c>
     </row>
     <row r="73" spans="1:20">
-      <c r="A73" s="385">
+      <c r="A73" s="373">
         <v>45152</v>
       </c>
       <c r="B73" s="99">
@@ -13708,7 +13708,7 @@
       </c>
     </row>
     <row r="74" spans="1:20">
-      <c r="A74" s="385">
+      <c r="A74" s="373">
         <v>45153</v>
       </c>
       <c r="B74" s="99">
@@ -13770,7 +13770,7 @@
       </c>
     </row>
     <row r="75" spans="1:20">
-      <c r="A75" s="385">
+      <c r="A75" s="373">
         <v>45154</v>
       </c>
       <c r="B75" s="99">
@@ -13832,7 +13832,7 @@
       </c>
     </row>
     <row r="76" spans="1:20">
-      <c r="A76" s="385">
+      <c r="A76" s="373">
         <v>45155</v>
       </c>
       <c r="B76" s="99">
@@ -13894,7 +13894,7 @@
       </c>
     </row>
     <row r="77" spans="1:20">
-      <c r="A77" s="385">
+      <c r="A77" s="373">
         <v>45156</v>
       </c>
       <c r="B77" s="99">
@@ -13956,7 +13956,7 @@
       </c>
     </row>
     <row r="78" spans="1:20">
-      <c r="A78" s="385">
+      <c r="A78" s="373">
         <v>45159</v>
       </c>
       <c r="B78" s="99">
@@ -14018,7 +14018,7 @@
       </c>
     </row>
     <row r="79" spans="1:20">
-      <c r="A79" s="385">
+      <c r="A79" s="373">
         <v>45160</v>
       </c>
       <c r="B79" s="99">
@@ -14080,7 +14080,7 @@
       </c>
     </row>
     <row r="80" spans="1:20">
-      <c r="A80" s="385">
+      <c r="A80" s="373">
         <v>45161</v>
       </c>
       <c r="B80" s="99">
@@ -14142,7 +14142,7 @@
       </c>
     </row>
     <row r="81" spans="1:20">
-      <c r="A81" s="385">
+      <c r="A81" s="373">
         <v>45162</v>
       </c>
       <c r="B81" s="99">
@@ -14204,7 +14204,7 @@
       </c>
     </row>
     <row r="82" spans="1:20">
-      <c r="A82" s="385">
+      <c r="A82" s="373">
         <v>45163</v>
       </c>
       <c r="B82" s="99">
@@ -14266,7 +14266,7 @@
       </c>
     </row>
     <row r="83" spans="1:20">
-      <c r="A83" s="385">
+      <c r="A83" s="373">
         <v>45166</v>
       </c>
       <c r="B83" s="99">
@@ -14328,7 +14328,7 @@
       </c>
     </row>
     <row r="84" spans="1:20">
-      <c r="A84" s="385">
+      <c r="A84" s="373">
         <v>45167</v>
       </c>
       <c r="B84" s="99">
@@ -14390,7 +14390,7 @@
       </c>
     </row>
     <row r="85" spans="1:20">
-      <c r="A85" s="385">
+      <c r="A85" s="373">
         <v>45168</v>
       </c>
       <c r="B85" s="99">
@@ -14452,7 +14452,7 @@
       </c>
     </row>
     <row r="86" spans="1:20">
-      <c r="A86" s="385">
+      <c r="A86" s="373">
         <v>45169</v>
       </c>
       <c r="B86" s="99">
@@ -14514,7 +14514,7 @@
       </c>
     </row>
     <row r="87" spans="1:20">
-      <c r="A87" s="385">
+      <c r="A87" s="373">
         <v>45170</v>
       </c>
       <c r="B87" s="99">
@@ -14576,7 +14576,7 @@
       </c>
     </row>
     <row r="88" spans="1:20">
-      <c r="A88" s="385">
+      <c r="A88" s="373">
         <v>45173</v>
       </c>
       <c r="B88" s="99">
@@ -14638,7 +14638,7 @@
       </c>
     </row>
     <row r="89" spans="1:20">
-      <c r="A89" s="385">
+      <c r="A89" s="373">
         <v>45174</v>
       </c>
       <c r="B89" s="99">
@@ -14700,7 +14700,7 @@
       </c>
     </row>
     <row r="90" spans="1:20">
-      <c r="A90" s="385">
+      <c r="A90" s="373">
         <v>45175</v>
       </c>
       <c r="B90" s="99">
@@ -14762,7 +14762,7 @@
       </c>
     </row>
     <row r="91" spans="1:20">
-      <c r="A91" s="385">
+      <c r="A91" s="373">
         <v>45176</v>
       </c>
       <c r="B91" s="99">
@@ -14824,7 +14824,7 @@
       </c>
     </row>
     <row r="92" spans="1:20">
-      <c r="A92" s="385">
+      <c r="A92" s="373">
         <v>45177</v>
       </c>
       <c r="B92" s="99">
@@ -14886,7 +14886,7 @@
       </c>
     </row>
     <row r="93" spans="1:20">
-      <c r="A93" s="385">
+      <c r="A93" s="373">
         <v>45180</v>
       </c>
       <c r="B93" s="99">
@@ -14948,7 +14948,7 @@
       </c>
     </row>
     <row r="94" spans="1:20">
-      <c r="A94" s="385">
+      <c r="A94" s="373">
         <v>45181</v>
       </c>
       <c r="B94" s="99">
@@ -15010,7 +15010,7 @@
       </c>
     </row>
     <row r="95" spans="1:20">
-      <c r="A95" s="385">
+      <c r="A95" s="373">
         <v>45182</v>
       </c>
       <c r="B95" s="99">
@@ -15072,7 +15072,7 @@
       </c>
     </row>
     <row r="96" spans="1:20">
-      <c r="A96" s="385">
+      <c r="A96" s="373">
         <v>45183</v>
       </c>
       <c r="B96" s="99">
@@ -15134,7 +15134,7 @@
       </c>
     </row>
     <row r="97" spans="1:20">
-      <c r="A97" s="385">
+      <c r="A97" s="373">
         <v>45184</v>
       </c>
       <c r="B97" s="99">
@@ -15196,7 +15196,7 @@
       </c>
     </row>
     <row r="98" spans="1:20">
-      <c r="A98" s="385">
+      <c r="A98" s="373">
         <v>45187</v>
       </c>
       <c r="B98" s="99">
@@ -15258,7 +15258,7 @@
       </c>
     </row>
     <row r="99" spans="1:20">
-      <c r="A99" s="385">
+      <c r="A99" s="373">
         <v>45188</v>
       </c>
       <c r="B99" s="99">
@@ -15320,7 +15320,7 @@
       </c>
     </row>
     <row r="100" spans="1:20">
-      <c r="A100" s="385">
+      <c r="A100" s="373">
         <v>45189</v>
       </c>
       <c r="B100" s="99">
@@ -15382,7 +15382,7 @@
       </c>
     </row>
     <row r="101" spans="1:20">
-      <c r="A101" s="385">
+      <c r="A101" s="373">
         <v>45190</v>
       </c>
       <c r="B101" s="99">
@@ -15444,7 +15444,7 @@
       </c>
     </row>
     <row r="102" spans="1:20">
-      <c r="A102" s="385">
+      <c r="A102" s="373">
         <v>45191</v>
       </c>
       <c r="B102" s="99">
@@ -15506,7 +15506,7 @@
       </c>
     </row>
     <row r="103" spans="1:20">
-      <c r="A103" s="385">
+      <c r="A103" s="373">
         <v>45194</v>
       </c>
       <c r="B103" s="99">
@@ -15568,7 +15568,7 @@
       </c>
     </row>
     <row r="104" spans="1:20">
-      <c r="A104" s="385">
+      <c r="A104" s="373">
         <v>45195</v>
       </c>
       <c r="B104" s="99">
@@ -15630,7 +15630,7 @@
       </c>
     </row>
     <row r="105" spans="1:20">
-      <c r="A105" s="385">
+      <c r="A105" s="373">
         <v>45196</v>
       </c>
       <c r="B105" s="99">
@@ -15692,7 +15692,7 @@
       </c>
     </row>
     <row r="106" spans="1:20">
-      <c r="A106" s="385">
+      <c r="A106" s="373">
         <v>45197</v>
       </c>
       <c r="B106" s="99">
@@ -15754,7 +15754,7 @@
       </c>
     </row>
     <row r="107" spans="1:20">
-      <c r="A107" s="385">
+      <c r="A107" s="373">
         <v>45198</v>
       </c>
       <c r="B107" s="99">
@@ -15816,7 +15816,7 @@
       </c>
     </row>
     <row r="108" spans="1:20">
-      <c r="A108" s="385">
+      <c r="A108" s="373">
         <v>45201</v>
       </c>
       <c r="B108" s="99">
@@ -15878,7 +15878,7 @@
       </c>
     </row>
     <row r="109" spans="1:20">
-      <c r="A109" s="385">
+      <c r="A109" s="373">
         <v>45202</v>
       </c>
       <c r="B109" s="99">
@@ -15940,7 +15940,7 @@
       </c>
     </row>
     <row r="110" spans="1:20">
-      <c r="A110" s="385">
+      <c r="A110" s="373">
         <v>45203</v>
       </c>
       <c r="B110" s="99">
@@ -16002,7 +16002,7 @@
       </c>
     </row>
     <row r="111" spans="1:20">
-      <c r="A111" s="385">
+      <c r="A111" s="373">
         <v>45204</v>
       </c>
       <c r="B111" s="99">
@@ -16064,7 +16064,7 @@
       </c>
     </row>
     <row r="112" spans="1:20">
-      <c r="A112" s="385">
+      <c r="A112" s="373">
         <v>45205</v>
       </c>
       <c r="B112" s="99">
@@ -16126,7 +16126,7 @@
       </c>
     </row>
     <row r="113" spans="1:20">
-      <c r="A113" s="385">
+      <c r="A113" s="373">
         <v>45208</v>
       </c>
       <c r="B113" s="99">
@@ -16188,7 +16188,7 @@
       </c>
     </row>
     <row r="114" spans="1:20">
-      <c r="A114" s="385">
+      <c r="A114" s="373">
         <v>45209</v>
       </c>
       <c r="B114" s="99">
@@ -16250,7 +16250,7 @@
       </c>
     </row>
     <row r="115" spans="1:20">
-      <c r="A115" s="385">
+      <c r="A115" s="373">
         <v>45210</v>
       </c>
       <c r="B115" s="99">
@@ -16312,7 +16312,7 @@
       </c>
     </row>
     <row r="116" spans="1:20">
-      <c r="A116" s="385">
+      <c r="A116" s="373">
         <v>45211</v>
       </c>
       <c r="B116" s="99">
@@ -16374,7 +16374,7 @@
       </c>
     </row>
     <row r="117" spans="1:20">
-      <c r="A117" s="385">
+      <c r="A117" s="373">
         <v>45212</v>
       </c>
       <c r="B117" s="99">
@@ -16436,7 +16436,7 @@
       </c>
     </row>
     <row r="118" spans="1:20">
-      <c r="A118" s="385">
+      <c r="A118" s="373">
         <v>45215</v>
       </c>
       <c r="B118" s="99">
@@ -16498,7 +16498,7 @@
       </c>
     </row>
     <row r="119" spans="1:20">
-      <c r="A119" s="385">
+      <c r="A119" s="373">
         <v>45216</v>
       </c>
       <c r="B119" s="99">
@@ -16560,7 +16560,7 @@
       </c>
     </row>
     <row r="120" spans="1:20">
-      <c r="A120" s="385">
+      <c r="A120" s="373">
         <v>45217</v>
       </c>
       <c r="B120" s="99">
@@ -16622,7 +16622,7 @@
       </c>
     </row>
     <row r="121" spans="1:20">
-      <c r="A121" s="385">
+      <c r="A121" s="373">
         <v>45218</v>
       </c>
       <c r="B121" s="99">
@@ -16684,7 +16684,7 @@
       </c>
     </row>
     <row r="122" spans="1:20">
-      <c r="A122" s="385">
+      <c r="A122" s="373">
         <v>45219</v>
       </c>
       <c r="B122" s="99">
@@ -16746,7 +16746,7 @@
       </c>
     </row>
     <row r="123" spans="1:20">
-      <c r="A123" s="385">
+      <c r="A123" s="373">
         <v>45222</v>
       </c>
       <c r="B123" s="99">
@@ -16808,7 +16808,7 @@
       </c>
     </row>
     <row r="124" spans="1:20">
-      <c r="A124" s="385">
+      <c r="A124" s="373">
         <v>45223</v>
       </c>
       <c r="B124" s="99">
@@ -16870,7 +16870,7 @@
       </c>
     </row>
     <row r="125" spans="1:20">
-      <c r="A125" s="385">
+      <c r="A125" s="373">
         <v>45224</v>
       </c>
       <c r="B125" s="99">
@@ -16932,7 +16932,7 @@
       </c>
     </row>
     <row r="126" spans="1:20">
-      <c r="A126" s="385">
+      <c r="A126" s="373">
         <v>45225</v>
       </c>
       <c r="B126" s="99">
@@ -16994,7 +16994,7 @@
       </c>
     </row>
     <row r="127" spans="1:20">
-      <c r="A127" s="385">
+      <c r="A127" s="373">
         <v>45226</v>
       </c>
       <c r="B127" s="99">
@@ -17056,7 +17056,7 @@
       </c>
     </row>
     <row r="128" spans="1:20">
-      <c r="A128" s="385">
+      <c r="A128" s="373">
         <v>45229</v>
       </c>
       <c r="B128" s="99">
@@ -17118,7 +17118,7 @@
       </c>
     </row>
     <row r="129" spans="1:20">
-      <c r="A129" s="385">
+      <c r="A129" s="373">
         <v>45230</v>
       </c>
       <c r="B129" s="99">
@@ -17180,7 +17180,7 @@
       </c>
     </row>
     <row r="130" spans="1:20">
-      <c r="A130" s="385">
+      <c r="A130" s="373">
         <v>45231</v>
       </c>
       <c r="B130" s="99">
@@ -17242,7 +17242,7 @@
       </c>
     </row>
     <row r="131" spans="1:20">
-      <c r="A131" s="385">
+      <c r="A131" s="373">
         <v>45232</v>
       </c>
       <c r="B131" s="99">
@@ -17304,7 +17304,7 @@
       </c>
     </row>
     <row r="132" spans="1:20">
-      <c r="A132" s="385">
+      <c r="A132" s="373">
         <v>45233</v>
       </c>
       <c r="B132" s="99">
@@ -17366,7 +17366,7 @@
       </c>
     </row>
     <row r="133" spans="1:20">
-      <c r="A133" s="385">
+      <c r="A133" s="373">
         <v>45236</v>
       </c>
       <c r="B133" s="99">
@@ -17428,7 +17428,7 @@
       </c>
     </row>
     <row r="134" spans="1:20">
-      <c r="A134" s="385">
+      <c r="A134" s="373">
         <v>45237</v>
       </c>
       <c r="B134" s="99">
@@ -17490,7 +17490,7 @@
       </c>
     </row>
     <row r="135" spans="1:20">
-      <c r="A135" s="385">
+      <c r="A135" s="373">
         <v>45238</v>
       </c>
       <c r="B135" s="99">
@@ -17552,7 +17552,7 @@
       </c>
     </row>
     <row r="136" spans="1:20">
-      <c r="A136" s="385">
+      <c r="A136" s="373">
         <v>45239</v>
       </c>
       <c r="B136" s="99">
@@ -17614,7 +17614,7 @@
       </c>
     </row>
     <row r="137" spans="1:20">
-      <c r="A137" s="385">
+      <c r="A137" s="373">
         <v>45240</v>
       </c>
       <c r="B137" s="99">
@@ -17676,7 +17676,7 @@
       </c>
     </row>
     <row r="138" spans="1:20">
-      <c r="A138" s="385">
+      <c r="A138" s="373">
         <v>45243</v>
       </c>
       <c r="B138" s="99">
@@ -17738,7 +17738,7 @@
       </c>
     </row>
     <row r="139" spans="1:20">
-      <c r="A139" s="385">
+      <c r="A139" s="373">
         <v>45244</v>
       </c>
       <c r="B139" s="99">
@@ -17800,7 +17800,7 @@
       </c>
     </row>
     <row r="140" spans="1:20">
-      <c r="A140" s="385">
+      <c r="A140" s="373">
         <v>45245</v>
       </c>
       <c r="B140" s="99">
@@ -17862,7 +17862,7 @@
       </c>
     </row>
     <row r="141" spans="1:20">
-      <c r="A141" s="385">
+      <c r="A141" s="373">
         <v>45246</v>
       </c>
       <c r="B141" s="99">
@@ -17924,7 +17924,7 @@
       </c>
     </row>
     <row r="142" spans="1:20">
-      <c r="A142" s="385">
+      <c r="A142" s="373">
         <v>45247</v>
       </c>
       <c r="B142" s="99">
@@ -17986,7 +17986,7 @@
       </c>
     </row>
     <row r="143" spans="1:20">
-      <c r="A143" s="385">
+      <c r="A143" s="373">
         <v>45250</v>
       </c>
       <c r="B143" s="99">
@@ -18048,7 +18048,7 @@
       </c>
     </row>
     <row r="144" spans="1:20">
-      <c r="A144" s="385">
+      <c r="A144" s="373">
         <v>45251</v>
       </c>
       <c r="B144" s="99">
@@ -18110,7 +18110,7 @@
       </c>
     </row>
     <row r="145" spans="1:20">
-      <c r="A145" s="385">
+      <c r="A145" s="373">
         <v>45252</v>
       </c>
       <c r="B145" s="99">
@@ -18172,7 +18172,7 @@
       </c>
     </row>
     <row r="146" spans="1:20">
-      <c r="A146" s="385">
+      <c r="A146" s="373">
         <v>45253</v>
       </c>
       <c r="B146" s="99">
@@ -18234,7 +18234,7 @@
       </c>
     </row>
     <row r="147" spans="1:20">
-      <c r="A147" s="385">
+      <c r="A147" s="373">
         <v>45254</v>
       </c>
       <c r="B147" s="99">
@@ -18811,7 +18811,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="385">
+      <c r="A2" s="373">
         <v>45051</v>
       </c>
       <c r="B2" s="277">
@@ -18840,7 +18840,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="385">
+      <c r="A3" s="373">
         <v>45054</v>
       </c>
       <c r="B3" s="277">
@@ -18869,7 +18869,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="385">
+      <c r="A4" s="373">
         <v>45055</v>
       </c>
       <c r="B4" s="277">
@@ -18898,7 +18898,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="385">
+      <c r="A5" s="373">
         <v>45056</v>
       </c>
       <c r="B5" s="277">
@@ -18927,7 +18927,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="385">
+      <c r="A6" s="373">
         <v>45057</v>
       </c>
       <c r="B6" s="277">
@@ -18956,7 +18956,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="385">
+      <c r="A7" s="373">
         <v>45058</v>
       </c>
       <c r="B7" s="277">
@@ -18985,7 +18985,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="385">
+      <c r="A8" s="373">
         <v>45061</v>
       </c>
       <c r="B8" s="277">
@@ -19014,7 +19014,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="385">
+      <c r="A9" s="373">
         <v>45062</v>
       </c>
       <c r="B9" s="277">
@@ -19043,7 +19043,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="385">
+      <c r="A10" s="373">
         <v>45063</v>
       </c>
       <c r="B10" s="277">
@@ -19072,7 +19072,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="385">
+      <c r="A11" s="373">
         <v>45064</v>
       </c>
       <c r="B11" s="277">
@@ -19101,7 +19101,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="385">
+      <c r="A12" s="373">
         <v>45065</v>
       </c>
       <c r="B12" s="277">
@@ -19130,7 +19130,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="385">
+      <c r="A13" s="373">
         <v>45068</v>
       </c>
       <c r="B13" s="277">
@@ -19159,7 +19159,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="385">
+      <c r="A14" s="373">
         <v>45069</v>
       </c>
       <c r="B14" s="277">
@@ -19188,7 +19188,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="385">
+      <c r="A15" s="373">
         <v>45070</v>
       </c>
       <c r="B15" s="277">
@@ -19217,7 +19217,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="385">
+      <c r="A16" s="373">
         <v>45071</v>
       </c>
       <c r="B16" s="277">
@@ -19246,7 +19246,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="385">
+      <c r="A17" s="373">
         <v>45072</v>
       </c>
       <c r="B17" s="277">
@@ -19275,7 +19275,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="385">
+      <c r="A18" s="373">
         <v>45075</v>
       </c>
       <c r="B18" s="277">
@@ -19304,7 +19304,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="385">
+      <c r="A19" s="373">
         <v>45076</v>
       </c>
       <c r="B19" s="277">
@@ -19333,7 +19333,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="385">
+      <c r="A20" s="373">
         <v>45077</v>
       </c>
       <c r="B20" s="277">
@@ -19362,7 +19362,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="385">
+      <c r="A21" s="373">
         <v>45078</v>
       </c>
       <c r="B21" s="277">
@@ -19391,7 +19391,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="385">
+      <c r="A22" s="373">
         <v>45079</v>
       </c>
       <c r="B22" s="277">
@@ -19420,7 +19420,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="385">
+      <c r="A23" s="373">
         <v>45082</v>
       </c>
       <c r="B23" s="277">
@@ -19449,7 +19449,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="385">
+      <c r="A24" s="373">
         <v>45083</v>
       </c>
       <c r="B24" s="277">
@@ -19478,7 +19478,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="385">
+      <c r="A25" s="373">
         <v>45084</v>
       </c>
       <c r="B25" s="277">
@@ -19507,7 +19507,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="385">
+      <c r="A26" s="373">
         <v>45085</v>
       </c>
       <c r="B26" s="277">
@@ -19536,7 +19536,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="385">
+      <c r="A27" s="373">
         <v>45086</v>
       </c>
       <c r="B27" s="277">
@@ -19565,7 +19565,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="385">
+      <c r="A28" s="373">
         <v>45089</v>
       </c>
       <c r="B28" s="277">
@@ -19594,7 +19594,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="385">
+      <c r="A29" s="373">
         <v>45090</v>
       </c>
       <c r="B29" s="277">
@@ -19623,7 +19623,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="385">
+      <c r="A30" s="373">
         <v>45091</v>
       </c>
       <c r="B30" s="277">
@@ -19652,7 +19652,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="385">
+      <c r="A31" s="373">
         <v>45092</v>
       </c>
       <c r="B31" s="277">
@@ -19681,7 +19681,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="385">
+      <c r="A32" s="373">
         <v>45093</v>
       </c>
       <c r="B32" s="277">
@@ -19710,7 +19710,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="385">
+      <c r="A33" s="373">
         <v>45096</v>
       </c>
       <c r="B33" s="277">
@@ -19739,7 +19739,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="385">
+      <c r="A34" s="373">
         <v>45097</v>
       </c>
       <c r="B34" s="277">
@@ -19768,7 +19768,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="385">
+      <c r="A35" s="373">
         <v>45098</v>
       </c>
       <c r="B35" s="277">
@@ -19797,7 +19797,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="385">
+      <c r="A36" s="373">
         <v>45099</v>
       </c>
       <c r="B36" s="277">
@@ -19826,7 +19826,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="385">
+      <c r="A37" s="373">
         <v>45100</v>
       </c>
       <c r="B37" s="277">
@@ -19855,7 +19855,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="385">
+      <c r="A38" s="373">
         <v>45103</v>
       </c>
       <c r="B38" s="277">
@@ -19884,7 +19884,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="385">
+      <c r="A39" s="373">
         <v>45104</v>
       </c>
       <c r="B39" s="277">
@@ -19913,7 +19913,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="385">
+      <c r="A40" s="373">
         <v>45105</v>
       </c>
       <c r="B40" s="277">
@@ -19942,7 +19942,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="385">
+      <c r="A41" s="373">
         <v>45106</v>
       </c>
       <c r="B41" s="277">
@@ -19971,7 +19971,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="385">
+      <c r="A42" s="373">
         <v>45107</v>
       </c>
       <c r="B42" s="277">
@@ -20000,7 +20000,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="385">
+      <c r="A43" s="373">
         <v>45110</v>
       </c>
       <c r="B43" s="277">
@@ -20029,7 +20029,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="385">
+      <c r="A44" s="373">
         <v>45111</v>
       </c>
       <c r="B44" s="277">
@@ -20058,7 +20058,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="385">
+      <c r="A45" s="373">
         <v>45112</v>
       </c>
       <c r="B45" s="277">
@@ -20087,7 +20087,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="385">
+      <c r="A46" s="373">
         <v>45113</v>
       </c>
       <c r="B46" s="277">
@@ -20116,7 +20116,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="385">
+      <c r="A47" s="373">
         <v>45114</v>
       </c>
       <c r="B47" s="277">
@@ -20145,7 +20145,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="385">
+      <c r="A48" s="373">
         <v>45117</v>
       </c>
       <c r="B48" s="277">
@@ -20174,7 +20174,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="385">
+      <c r="A49" s="373">
         <v>45118</v>
       </c>
       <c r="B49" s="277">
@@ -20203,7 +20203,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="385">
+      <c r="A50" s="373">
         <v>45119</v>
       </c>
       <c r="B50" s="277">
@@ -20232,7 +20232,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="385">
+      <c r="A51" s="373">
         <v>45120</v>
       </c>
       <c r="B51" s="277">
@@ -20261,7 +20261,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="385">
+      <c r="A52" s="373">
         <v>45121</v>
       </c>
       <c r="B52" s="277">
@@ -20290,7 +20290,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="385">
+      <c r="A53" s="373">
         <v>45124</v>
       </c>
       <c r="B53" s="277">
@@ -20319,7 +20319,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="385">
+      <c r="A54" s="373">
         <v>45125</v>
       </c>
       <c r="B54" s="277">
@@ -20348,7 +20348,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="385">
+      <c r="A55" s="373">
         <v>45126</v>
       </c>
       <c r="B55" s="277">
@@ -20377,7 +20377,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="385">
+      <c r="A56" s="373">
         <v>45127</v>
       </c>
       <c r="B56" s="277">
@@ -20406,7 +20406,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="385">
+      <c r="A57" s="373">
         <v>45128</v>
       </c>
       <c r="B57" s="277">
@@ -20435,7 +20435,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="385">
+      <c r="A58" s="373">
         <v>45131</v>
       </c>
       <c r="B58" s="277">
@@ -20464,7 +20464,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="385">
+      <c r="A59" s="373">
         <v>45132</v>
       </c>
       <c r="B59" s="277">
@@ -20493,7 +20493,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="385">
+      <c r="A60" s="373">
         <v>45133</v>
       </c>
       <c r="B60" s="277">
@@ -20522,7 +20522,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="385">
+      <c r="A61" s="373">
         <v>45134</v>
       </c>
       <c r="B61" s="277">
@@ -20551,7 +20551,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="385">
+      <c r="A62" s="373">
         <v>45135</v>
       </c>
       <c r="B62" s="277">
@@ -20580,7 +20580,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="385">
+      <c r="A63" s="373">
         <v>45138</v>
       </c>
       <c r="B63" s="277">
@@ -20609,7 +20609,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="385">
+      <c r="A64" s="373">
         <v>45139</v>
       </c>
       <c r="B64" s="277">
@@ -20638,7 +20638,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="385">
+      <c r="A65" s="373">
         <v>45140</v>
       </c>
       <c r="B65" s="277">
@@ -20667,7 +20667,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="385">
+      <c r="A66" s="373">
         <v>45141</v>
       </c>
       <c r="B66" s="277">
@@ -20696,7 +20696,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="385">
+      <c r="A67" s="373">
         <v>45142</v>
       </c>
       <c r="B67" s="277">
@@ -20725,7 +20725,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="385">
+      <c r="A68" s="373">
         <v>45145</v>
       </c>
       <c r="B68" s="277">
@@ -20754,7 +20754,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="385">
+      <c r="A69" s="373">
         <v>45146</v>
       </c>
       <c r="B69" s="277">
@@ -20783,7 +20783,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="385">
+      <c r="A70" s="373">
         <v>45147</v>
       </c>
       <c r="B70" s="277">
@@ -20812,7 +20812,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="385">
+      <c r="A71" s="373">
         <v>45148</v>
       </c>
       <c r="B71" s="277">
@@ -20841,7 +20841,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="385">
+      <c r="A72" s="373">
         <v>45149</v>
       </c>
       <c r="B72" s="277">
@@ -20870,7 +20870,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="385">
+      <c r="A73" s="373">
         <v>45152</v>
       </c>
       <c r="B73" s="277">
@@ -20899,7 +20899,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="385">
+      <c r="A74" s="373">
         <v>45153</v>
       </c>
       <c r="B74" s="277">
@@ -20928,7 +20928,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="385">
+      <c r="A75" s="373">
         <v>45154</v>
       </c>
       <c r="B75" s="277">
@@ -20957,7 +20957,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="385">
+      <c r="A76" s="373">
         <v>45155</v>
       </c>
       <c r="B76" s="277">
@@ -20986,7 +20986,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="385">
+      <c r="A77" s="373">
         <v>45156</v>
       </c>
       <c r="B77" s="277">
@@ -21015,7 +21015,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="385">
+      <c r="A78" s="373">
         <v>45159</v>
       </c>
       <c r="B78" s="277">
@@ -21044,7 +21044,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="385">
+      <c r="A79" s="373">
         <v>45160</v>
       </c>
       <c r="B79" s="277">
@@ -21073,7 +21073,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="385">
+      <c r="A80" s="373">
         <v>45161</v>
       </c>
       <c r="B80" s="277">
@@ -21102,7 +21102,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="385">
+      <c r="A81" s="373">
         <v>45162</v>
       </c>
       <c r="B81" s="277">
@@ -21131,7 +21131,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="385">
+      <c r="A82" s="373">
         <v>45163</v>
       </c>
       <c r="B82" s="277">
@@ -21160,7 +21160,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="385">
+      <c r="A83" s="373">
         <v>45166</v>
       </c>
       <c r="B83" s="277">
@@ -21189,7 +21189,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="385">
+      <c r="A84" s="373">
         <v>45167</v>
       </c>
       <c r="B84" s="277">
@@ -21218,7 +21218,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="385">
+      <c r="A85" s="373">
         <v>45168</v>
       </c>
       <c r="B85" s="277">
@@ -21247,7 +21247,7 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="385">
+      <c r="A86" s="373">
         <v>45169</v>
       </c>
       <c r="B86" s="277">
@@ -21276,7 +21276,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="385">
+      <c r="A87" s="373">
         <v>45170</v>
       </c>
       <c r="B87" s="277">
@@ -21305,7 +21305,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="385">
+      <c r="A88" s="373">
         <v>45173</v>
       </c>
       <c r="B88" s="277">
@@ -21334,7 +21334,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="385">
+      <c r="A89" s="373">
         <v>45174</v>
       </c>
       <c r="B89" s="277">
@@ -21363,7 +21363,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="385">
+      <c r="A90" s="373">
         <v>45175</v>
       </c>
       <c r="B90" s="277">
@@ -21392,7 +21392,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="385">
+      <c r="A91" s="373">
         <v>45176</v>
       </c>
       <c r="B91" s="277">
@@ -21421,7 +21421,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="385">
+      <c r="A92" s="373">
         <v>45177</v>
       </c>
       <c r="B92" s="277">
@@ -21450,7 +21450,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="385">
+      <c r="A93" s="373">
         <v>45180</v>
       </c>
       <c r="B93" s="277">
@@ -21479,7 +21479,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="385">
+      <c r="A94" s="373">
         <v>45181</v>
       </c>
       <c r="B94" s="277">
@@ -21508,7 +21508,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="385">
+      <c r="A95" s="373">
         <v>45182</v>
       </c>
       <c r="B95" s="277">
@@ -21537,7 +21537,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="385">
+      <c r="A96" s="373">
         <v>45183</v>
       </c>
       <c r="B96" s="277">
@@ -21566,7 +21566,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="385">
+      <c r="A97" s="373">
         <v>45184</v>
       </c>
       <c r="B97" s="277">
@@ -21595,7 +21595,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="385">
+      <c r="A98" s="373">
         <v>45187</v>
       </c>
       <c r="B98" s="277">
@@ -21624,7 +21624,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="385">
+      <c r="A99" s="373">
         <v>45188</v>
       </c>
       <c r="B99" s="277">
@@ -21653,7 +21653,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="385">
+      <c r="A100" s="373">
         <v>45189</v>
       </c>
       <c r="B100" s="277">
@@ -21682,7 +21682,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="385">
+      <c r="A101" s="373">
         <v>45190</v>
       </c>
       <c r="B101" s="277">
@@ -21711,7 +21711,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="385">
+      <c r="A102" s="373">
         <v>45191</v>
       </c>
       <c r="B102" s="277">
@@ -21740,7 +21740,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="385">
+      <c r="A103" s="373">
         <v>45194</v>
       </c>
       <c r="B103" s="277">
@@ -21769,7 +21769,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="385">
+      <c r="A104" s="373">
         <v>45195</v>
       </c>
       <c r="B104" s="277">
@@ -21798,7 +21798,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="385">
+      <c r="A105" s="373">
         <v>45196</v>
       </c>
       <c r="B105" s="277">
@@ -21827,7 +21827,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="385">
+      <c r="A106" s="373">
         <v>45197</v>
       </c>
       <c r="B106" s="277">
@@ -21856,7 +21856,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="385">
+      <c r="A107" s="373">
         <v>45198</v>
       </c>
       <c r="B107" s="277">
@@ -21885,7 +21885,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="385">
+      <c r="A108" s="373">
         <v>45201</v>
       </c>
       <c r="B108" s="277">
@@ -21914,7 +21914,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="385">
+      <c r="A109" s="373">
         <v>45202</v>
       </c>
       <c r="B109" s="277">
@@ -21943,7 +21943,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="385">
+      <c r="A110" s="373">
         <v>45203</v>
       </c>
       <c r="B110" s="277">
@@ -21972,7 +21972,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="385">
+      <c r="A111" s="373">
         <v>45204</v>
       </c>
       <c r="B111" s="277">
@@ -22001,7 +22001,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="385">
+      <c r="A112" s="373">
         <v>45205</v>
       </c>
       <c r="B112" s="277">
@@ -22030,7 +22030,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="385">
+      <c r="A113" s="373">
         <v>45208</v>
       </c>
       <c r="B113" s="277">
@@ -22059,7 +22059,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="385">
+      <c r="A114" s="373">
         <v>45209</v>
       </c>
       <c r="B114" s="277">
@@ -22088,7 +22088,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="385">
+      <c r="A115" s="373">
         <v>45210</v>
       </c>
       <c r="B115" s="277">
@@ -22117,7 +22117,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="385">
+      <c r="A116" s="373">
         <v>45211</v>
       </c>
       <c r="B116" s="277">
@@ -22146,7 +22146,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="385">
+      <c r="A117" s="373">
         <v>45212</v>
       </c>
       <c r="B117" s="277">
@@ -22175,7 +22175,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="385">
+      <c r="A118" s="373">
         <v>45215</v>
       </c>
       <c r="B118" s="277">
@@ -22204,7 +22204,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="385">
+      <c r="A119" s="373">
         <v>45216</v>
       </c>
       <c r="B119" s="277">
@@ -22233,7 +22233,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="385">
+      <c r="A120" s="373">
         <v>45217</v>
       </c>
       <c r="B120" s="277">
@@ -22262,7 +22262,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="385">
+      <c r="A121" s="373">
         <v>45218</v>
       </c>
       <c r="B121" s="277">
@@ -22291,7 +22291,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="385">
+      <c r="A122" s="373">
         <v>45219</v>
       </c>
       <c r="B122" s="277">
@@ -22320,7 +22320,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="385">
+      <c r="A123" s="373">
         <v>45222</v>
       </c>
       <c r="B123" s="277">
@@ -22349,7 +22349,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="385">
+      <c r="A124" s="373">
         <v>45223</v>
       </c>
       <c r="B124" s="277">
@@ -22378,7 +22378,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="385">
+      <c r="A125" s="373">
         <v>45224</v>
       </c>
       <c r="B125" s="277">
@@ -22407,7 +22407,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="385">
+      <c r="A126" s="373">
         <v>45225</v>
       </c>
       <c r="B126" s="277">
@@ -22436,7 +22436,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="385">
+      <c r="A127" s="373">
         <v>45226</v>
       </c>
       <c r="B127" s="277">
@@ -22465,7 +22465,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="385">
+      <c r="A128" s="373">
         <v>45229</v>
       </c>
       <c r="B128" s="277">
@@ -22494,7 +22494,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="385">
+      <c r="A129" s="373">
         <v>45230</v>
       </c>
       <c r="B129" s="277">
@@ -22523,7 +22523,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="385">
+      <c r="A130" s="373">
         <v>45231</v>
       </c>
       <c r="B130" s="277">
@@ -22552,7 +22552,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="385">
+      <c r="A131" s="373">
         <v>45232</v>
       </c>
       <c r="B131" s="277">
@@ -22581,7 +22581,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="385">
+      <c r="A132" s="373">
         <v>45233</v>
       </c>
       <c r="B132" s="277">
@@ -22610,7 +22610,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="385">
+      <c r="A133" s="373">
         <v>45236</v>
       </c>
       <c r="B133" s="277">
@@ -22639,7 +22639,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="385">
+      <c r="A134" s="373">
         <v>45237</v>
       </c>
       <c r="B134" s="277">
@@ -22668,7 +22668,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="385">
+      <c r="A135" s="373">
         <v>45238</v>
       </c>
       <c r="B135" s="277">
@@ -22697,7 +22697,7 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="385">
+      <c r="A136" s="373">
         <v>45239</v>
       </c>
       <c r="B136" s="277">
@@ -22726,7 +22726,7 @@
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="385">
+      <c r="A137" s="373">
         <v>45240</v>
       </c>
       <c r="B137" s="277">
@@ -22755,7 +22755,7 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="385">
+      <c r="A138" s="373">
         <v>45243</v>
       </c>
       <c r="B138" s="277">
@@ -22784,7 +22784,7 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="385">
+      <c r="A139" s="373">
         <v>45244</v>
       </c>
       <c r="B139" s="277">
@@ -22813,7 +22813,7 @@
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="385">
+      <c r="A140" s="373">
         <v>45245</v>
       </c>
       <c r="B140" s="277">
@@ -22842,7 +22842,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="385">
+      <c r="A141" s="373">
         <v>45246</v>
       </c>
       <c r="B141" s="277">
@@ -22871,7 +22871,7 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="385">
+      <c r="A142" s="373">
         <v>45247</v>
       </c>
       <c r="B142" s="277">
@@ -22900,7 +22900,7 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="385">
+      <c r="A143" s="373">
         <v>45250</v>
       </c>
       <c r="B143" s="277">
@@ -22929,7 +22929,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="385">
+      <c r="A144" s="373">
         <v>45251</v>
       </c>
       <c r="B144" s="277">
@@ -22958,7 +22958,7 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="385">
+      <c r="A145" s="373">
         <v>45252</v>
       </c>
       <c r="B145" s="277">
@@ -22987,7 +22987,7 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="385">
+      <c r="A146" s="373">
         <v>45253</v>
       </c>
       <c r="B146" s="277">
@@ -23016,7 +23016,7 @@
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="385">
+      <c r="A147" s="373">
         <v>45254</v>
       </c>
       <c r="B147" s="277">
@@ -23054,12 +23054,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -26354,7 +26354,7 @@
       <c r="E31" s="38"/>
       <c r="F31" s="38"/>
       <c r="G31" s="122">
-        <v>0.19583291765939007</v>
+        <v>0.36102157036370747</v>
       </c>
       <c r="H31" s="81"/>
       <c r="I31" s="38" t="s">
@@ -26410,7 +26410,7 @@
       <c r="AM31" s="38"/>
       <c r="AN31" s="38"/>
       <c r="AO31" s="14"/>
-      <c r="AP31" s="386"/>
+      <c r="AP31" s="374"/>
       <c r="AQ31" s="38"/>
       <c r="AR31" s="309" t="s">
         <v>33</v>
@@ -26483,7 +26483,7 @@
       <c r="AM32" s="38"/>
       <c r="AN32" s="38"/>
       <c r="AO32" s="14"/>
-      <c r="AP32" s="386"/>
+      <c r="AP32" s="374"/>
       <c r="AQ32" s="38"/>
       <c r="AR32" s="309" t="s">
         <v>33</v>
@@ -26556,7 +26556,7 @@
       <c r="AM33" s="38"/>
       <c r="AN33" s="38"/>
       <c r="AO33" s="14"/>
-      <c r="AP33" s="386"/>
+      <c r="AP33" s="374"/>
       <c r="AQ33" s="38"/>
       <c r="AR33" s="309" t="s">
         <v>33</v>
@@ -26629,7 +26629,7 @@
       <c r="AM34" s="38"/>
       <c r="AN34" s="38"/>
       <c r="AO34" s="14"/>
-      <c r="AP34" s="386"/>
+      <c r="AP34" s="374"/>
       <c r="AQ34" s="38"/>
       <c r="AR34" s="309" t="s">
         <v>33</v>
@@ -26646,9 +26646,7 @@
       </c>
     </row>
     <row r="38" spans="1:45">
-      <c r="A38" s="155">
-        <v>45256</v>
-      </c>
+      <c r="A38" s="155"/>
       <c r="B38" t="s">
         <v>300</v>
       </c>
@@ -26767,7 +26765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I646"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C625" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" sqref="A1:XFD1048576"/>
@@ -39341,7 +39339,7 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="385">
+      <c r="A2" s="373">
         <v>45051</v>
       </c>
       <c r="B2" s="277" t="s">
@@ -39402,7 +39400,7 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="385">
+      <c r="A3" s="373">
         <v>45054</v>
       </c>
       <c r="B3" s="277" t="s">
@@ -39463,7 +39461,7 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="385">
+      <c r="A4" s="373">
         <v>45055</v>
       </c>
       <c r="B4" s="277" t="s">
@@ -39524,7 +39522,7 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="385">
+      <c r="A5" s="373">
         <v>45056</v>
       </c>
       <c r="B5" s="277" t="s">
@@ -39585,7 +39583,7 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="385">
+      <c r="A6" s="373">
         <v>45057</v>
       </c>
       <c r="B6" s="277" t="s">
@@ -39646,7 +39644,7 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="385">
+      <c r="A7" s="373">
         <v>45058</v>
       </c>
       <c r="B7" s="277" t="s">
@@ -39707,7 +39705,7 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="385">
+      <c r="A8" s="373">
         <v>45061</v>
       </c>
       <c r="B8" s="277" t="s">
@@ -39768,7 +39766,7 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="385">
+      <c r="A9" s="373">
         <v>45062</v>
       </c>
       <c r="B9" s="277" t="s">
@@ -39829,7 +39827,7 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="385">
+      <c r="A10" s="373">
         <v>45063</v>
       </c>
       <c r="B10" s="277" t="s">
@@ -39890,7 +39888,7 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="385">
+      <c r="A11" s="373">
         <v>45064</v>
       </c>
       <c r="B11" s="277" t="s">
@@ -39951,7 +39949,7 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="385">
+      <c r="A12" s="373">
         <v>45065</v>
       </c>
       <c r="B12" s="277" t="s">
@@ -40012,7 +40010,7 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="385">
+      <c r="A13" s="373">
         <v>45068</v>
       </c>
       <c r="B13" s="277" t="s">
@@ -40073,7 +40071,7 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="385">
+      <c r="A14" s="373">
         <v>45069</v>
       </c>
       <c r="B14" s="277" t="s">
@@ -40134,7 +40132,7 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="385">
+      <c r="A15" s="373">
         <v>45070</v>
       </c>
       <c r="B15" s="277" t="s">
@@ -40195,7 +40193,7 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="385">
+      <c r="A16" s="373">
         <v>45071</v>
       </c>
       <c r="B16" s="277" t="s">
@@ -40256,7 +40254,7 @@
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="385">
+      <c r="A17" s="373">
         <v>45072</v>
       </c>
       <c r="B17" s="277" t="s">
@@ -40317,7 +40315,7 @@
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="385">
+      <c r="A18" s="373">
         <v>45075</v>
       </c>
       <c r="B18" s="277" t="s">
@@ -40378,7 +40376,7 @@
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="385">
+      <c r="A19" s="373">
         <v>45076</v>
       </c>
       <c r="B19" s="277" t="s">
@@ -40439,7 +40437,7 @@
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="385">
+      <c r="A20" s="373">
         <v>45077</v>
       </c>
       <c r="B20" s="277" t="s">
@@ -40500,7 +40498,7 @@
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="385">
+      <c r="A21" s="373">
         <v>45078</v>
       </c>
       <c r="B21" s="277" t="s">
@@ -40561,7 +40559,7 @@
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="385">
+      <c r="A22" s="373">
         <v>45079</v>
       </c>
       <c r="B22" s="277" t="s">
@@ -40622,7 +40620,7 @@
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="385">
+      <c r="A23" s="373">
         <v>45082</v>
       </c>
       <c r="B23" s="277" t="s">
@@ -40683,7 +40681,7 @@
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="385">
+      <c r="A24" s="373">
         <v>45083</v>
       </c>
       <c r="B24" s="277" t="s">
@@ -40744,7 +40742,7 @@
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="385">
+      <c r="A25" s="373">
         <v>45084</v>
       </c>
       <c r="B25" s="277" t="s">
@@ -40805,7 +40803,7 @@
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="385">
+      <c r="A26" s="373">
         <v>45085</v>
       </c>
       <c r="B26" s="277" t="s">
@@ -40866,7 +40864,7 @@
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="385">
+      <c r="A27" s="373">
         <v>45086</v>
       </c>
       <c r="B27" s="277" t="s">
@@ -40927,7 +40925,7 @@
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="385">
+      <c r="A28" s="373">
         <v>45089</v>
       </c>
       <c r="B28" s="277" t="s">
@@ -40988,7 +40986,7 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="385">
+      <c r="A29" s="373">
         <v>45090</v>
       </c>
       <c r="B29" s="277" t="s">
@@ -41049,7 +41047,7 @@
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="385">
+      <c r="A30" s="373">
         <v>45091</v>
       </c>
       <c r="B30" s="277" t="s">
@@ -41110,7 +41108,7 @@
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="385">
+      <c r="A31" s="373">
         <v>45092</v>
       </c>
       <c r="B31" s="277" t="s">
@@ -41171,7 +41169,7 @@
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="385">
+      <c r="A32" s="373">
         <v>45093</v>
       </c>
       <c r="B32" s="277" t="s">
@@ -41232,7 +41230,7 @@
       </c>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="385">
+      <c r="A33" s="373">
         <v>45096</v>
       </c>
       <c r="B33" s="277" t="s">
@@ -41293,7 +41291,7 @@
       </c>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="385">
+      <c r="A34" s="373">
         <v>45097</v>
       </c>
       <c r="B34" s="277" t="s">
@@ -41354,7 +41352,7 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="385">
+      <c r="A35" s="373">
         <v>45098</v>
       </c>
       <c r="B35" s="277" t="s">
@@ -41415,7 +41413,7 @@
       </c>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="385">
+      <c r="A36" s="373">
         <v>45099</v>
       </c>
       <c r="B36" s="277" t="s">
@@ -41476,7 +41474,7 @@
       </c>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="385">
+      <c r="A37" s="373">
         <v>45100</v>
       </c>
       <c r="B37" s="277" t="s">
@@ -41537,7 +41535,7 @@
       </c>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="385">
+      <c r="A38" s="373">
         <v>45103</v>
       </c>
       <c r="B38" s="277" t="s">
@@ -41598,7 +41596,7 @@
       </c>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="385">
+      <c r="A39" s="373">
         <v>45104</v>
       </c>
       <c r="B39" s="277" t="s">
@@ -41659,7 +41657,7 @@
       </c>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="385">
+      <c r="A40" s="373">
         <v>45105</v>
       </c>
       <c r="B40" s="277" t="s">
@@ -41720,7 +41718,7 @@
       </c>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="385">
+      <c r="A41" s="373">
         <v>45106</v>
       </c>
       <c r="B41" s="277" t="s">
@@ -41781,7 +41779,7 @@
       </c>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="385">
+      <c r="A42" s="373">
         <v>45107</v>
       </c>
       <c r="B42" s="277" t="s">
@@ -41842,7 +41840,7 @@
       </c>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="385">
+      <c r="A43" s="373">
         <v>45110</v>
       </c>
       <c r="B43" s="277" t="s">
@@ -41903,7 +41901,7 @@
       </c>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="385">
+      <c r="A44" s="373">
         <v>45111</v>
       </c>
       <c r="B44" s="277" t="s">
@@ -41964,7 +41962,7 @@
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="385">
+      <c r="A45" s="373">
         <v>45112</v>
       </c>
       <c r="B45" s="277" t="s">
@@ -42025,7 +42023,7 @@
       </c>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="385">
+      <c r="A46" s="373">
         <v>45113</v>
       </c>
       <c r="B46" s="277" t="s">
@@ -42086,7 +42084,7 @@
       </c>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="385">
+      <c r="A47" s="373">
         <v>45114</v>
       </c>
       <c r="B47" s="277" t="s">
@@ -42147,7 +42145,7 @@
       </c>
     </row>
     <row r="48" spans="1:21">
-      <c r="A48" s="385">
+      <c r="A48" s="373">
         <v>45117</v>
       </c>
       <c r="B48" s="277" t="s">
@@ -42208,7 +42206,7 @@
       </c>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="385">
+      <c r="A49" s="373">
         <v>45118</v>
       </c>
       <c r="B49" s="277" t="s">
@@ -42269,7 +42267,7 @@
       </c>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="385">
+      <c r="A50" s="373">
         <v>45119</v>
       </c>
       <c r="B50" s="277" t="s">
@@ -42330,7 +42328,7 @@
       </c>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="385">
+      <c r="A51" s="373">
         <v>45120</v>
       </c>
       <c r="B51" s="277" t="s">
@@ -42391,7 +42389,7 @@
       </c>
     </row>
     <row r="52" spans="1:21">
-      <c r="A52" s="385">
+      <c r="A52" s="373">
         <v>45121</v>
       </c>
       <c r="B52" s="277" t="s">
@@ -42452,7 +42450,7 @@
       </c>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="385">
+      <c r="A53" s="373">
         <v>45124</v>
       </c>
       <c r="B53" s="277" t="s">
@@ -42513,7 +42511,7 @@
       </c>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="385">
+      <c r="A54" s="373">
         <v>45125</v>
       </c>
       <c r="B54" s="277" t="s">
@@ -42574,7 +42572,7 @@
       </c>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="385">
+      <c r="A55" s="373">
         <v>45126</v>
       </c>
       <c r="B55" s="277" t="s">
@@ -42635,7 +42633,7 @@
       </c>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="385">
+      <c r="A56" s="373">
         <v>45127</v>
       </c>
       <c r="B56" s="277" t="s">
@@ -42696,7 +42694,7 @@
       </c>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="385">
+      <c r="A57" s="373">
         <v>45128</v>
       </c>
       <c r="B57" s="277" t="s">
@@ -42757,7 +42755,7 @@
       </c>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="385">
+      <c r="A58" s="373">
         <v>45131</v>
       </c>
       <c r="B58" s="277" t="s">
@@ -42818,7 +42816,7 @@
       </c>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="385">
+      <c r="A59" s="373">
         <v>45132</v>
       </c>
       <c r="B59" s="277" t="s">
@@ -42879,7 +42877,7 @@
       </c>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="385">
+      <c r="A60" s="373">
         <v>45133</v>
       </c>
       <c r="B60" s="277" t="s">
@@ -42940,7 +42938,7 @@
       </c>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="385">
+      <c r="A61" s="373">
         <v>45134</v>
       </c>
       <c r="B61" s="277" t="s">
@@ -43001,7 +42999,7 @@
       </c>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="385">
+      <c r="A62" s="373">
         <v>45135</v>
       </c>
       <c r="B62" s="277" t="s">
@@ -43062,7 +43060,7 @@
       </c>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="385">
+      <c r="A63" s="373">
         <v>45138</v>
       </c>
       <c r="B63" s="277" t="s">
@@ -43123,7 +43121,7 @@
       </c>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="385">
+      <c r="A64" s="373">
         <v>45139</v>
       </c>
       <c r="B64" s="277" t="s">
@@ -43184,7 +43182,7 @@
       </c>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="385">
+      <c r="A65" s="373">
         <v>45140</v>
       </c>
       <c r="B65" s="277" t="s">
@@ -43245,7 +43243,7 @@
       </c>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="385">
+      <c r="A66" s="373">
         <v>45141</v>
       </c>
       <c r="B66" s="277" t="s">
@@ -43306,7 +43304,7 @@
       </c>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="385">
+      <c r="A67" s="373">
         <v>45142</v>
       </c>
       <c r="B67" s="277" t="s">
@@ -43367,7 +43365,7 @@
       </c>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="385">
+      <c r="A68" s="373">
         <v>45145</v>
       </c>
       <c r="B68" s="277" t="s">
@@ -43428,7 +43426,7 @@
       </c>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="385">
+      <c r="A69" s="373">
         <v>45146</v>
       </c>
       <c r="B69" s="277" t="s">
@@ -43489,7 +43487,7 @@
       </c>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="385">
+      <c r="A70" s="373">
         <v>45147</v>
       </c>
       <c r="B70" s="277" t="s">
@@ -43550,7 +43548,7 @@
       </c>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="385">
+      <c r="A71" s="373">
         <v>45148</v>
       </c>
       <c r="B71" s="277" t="s">
@@ -43611,7 +43609,7 @@
       </c>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="385">
+      <c r="A72" s="373">
         <v>45149</v>
       </c>
       <c r="B72" s="277" t="s">
@@ -43672,7 +43670,7 @@
       </c>
     </row>
     <row r="73" spans="1:21">
-      <c r="A73" s="385">
+      <c r="A73" s="373">
         <v>45152</v>
       </c>
       <c r="B73" s="277" t="s">
@@ -43733,7 +43731,7 @@
       </c>
     </row>
     <row r="74" spans="1:21">
-      <c r="A74" s="385">
+      <c r="A74" s="373">
         <v>45153</v>
       </c>
       <c r="B74" s="277" t="s">
@@ -43794,7 +43792,7 @@
       </c>
     </row>
     <row r="75" spans="1:21">
-      <c r="A75" s="385">
+      <c r="A75" s="373">
         <v>45154</v>
       </c>
       <c r="B75" s="277" t="s">
@@ -43855,7 +43853,7 @@
       </c>
     </row>
     <row r="76" spans="1:21">
-      <c r="A76" s="385">
+      <c r="A76" s="373">
         <v>45155</v>
       </c>
       <c r="B76" s="277" t="s">
@@ -43916,7 +43914,7 @@
       </c>
     </row>
     <row r="77" spans="1:21">
-      <c r="A77" s="385">
+      <c r="A77" s="373">
         <v>45156</v>
       </c>
       <c r="B77" s="277" t="s">
@@ -43977,7 +43975,7 @@
       </c>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="385">
+      <c r="A78" s="373">
         <v>45159</v>
       </c>
       <c r="B78" s="277" t="s">
@@ -44038,7 +44036,7 @@
       </c>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="385">
+      <c r="A79" s="373">
         <v>45160</v>
       </c>
       <c r="B79" s="277" t="s">
@@ -44099,7 +44097,7 @@
       </c>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="385">
+      <c r="A80" s="373">
         <v>45161</v>
       </c>
       <c r="B80" s="277" t="s">
@@ -44160,7 +44158,7 @@
       </c>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="385">
+      <c r="A81" s="373">
         <v>45162</v>
       </c>
       <c r="B81" s="277" t="s">
@@ -44221,7 +44219,7 @@
       </c>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="385">
+      <c r="A82" s="373">
         <v>45163</v>
       </c>
       <c r="B82" s="277" t="s">
@@ -44282,7 +44280,7 @@
       </c>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="385">
+      <c r="A83" s="373">
         <v>45166</v>
       </c>
       <c r="B83" s="277" t="s">
@@ -44343,7 +44341,7 @@
       </c>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="385">
+      <c r="A84" s="373">
         <v>45167</v>
       </c>
       <c r="B84" s="277" t="s">
@@ -44404,7 +44402,7 @@
       </c>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="385">
+      <c r="A85" s="373">
         <v>45168</v>
       </c>
       <c r="B85" s="277" t="s">
@@ -44465,7 +44463,7 @@
       </c>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="385">
+      <c r="A86" s="373">
         <v>45169</v>
       </c>
       <c r="B86" s="277" t="s">
@@ -44526,7 +44524,7 @@
       </c>
     </row>
     <row r="87" spans="1:21">
-      <c r="A87" s="385">
+      <c r="A87" s="373">
         <v>45170</v>
       </c>
       <c r="B87" s="277" t="s">
@@ -44587,7 +44585,7 @@
       </c>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="385">
+      <c r="A88" s="373">
         <v>45173</v>
       </c>
       <c r="B88" s="277" t="s">
@@ -44648,7 +44646,7 @@
       </c>
     </row>
     <row r="89" spans="1:21">
-      <c r="A89" s="385">
+      <c r="A89" s="373">
         <v>45174</v>
       </c>
       <c r="B89" s="277" t="s">
@@ -44709,7 +44707,7 @@
       </c>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="385">
+      <c r="A90" s="373">
         <v>45175</v>
       </c>
       <c r="B90" s="277" t="s">
@@ -44770,7 +44768,7 @@
       </c>
     </row>
     <row r="91" spans="1:21">
-      <c r="A91" s="385">
+      <c r="A91" s="373">
         <v>45176</v>
       </c>
       <c r="B91" s="277" t="s">
@@ -44831,7 +44829,7 @@
       </c>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="385">
+      <c r="A92" s="373">
         <v>45177</v>
       </c>
       <c r="B92" s="277" t="s">
@@ -44892,7 +44890,7 @@
       </c>
     </row>
     <row r="93" spans="1:21">
-      <c r="A93" s="385">
+      <c r="A93" s="373">
         <v>45180</v>
       </c>
       <c r="B93" s="277" t="s">
@@ -44953,7 +44951,7 @@
       </c>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="385">
+      <c r="A94" s="373">
         <v>45181</v>
       </c>
       <c r="B94" s="277" t="s">
@@ -45014,7 +45012,7 @@
       </c>
     </row>
     <row r="95" spans="1:21">
-      <c r="A95" s="385">
+      <c r="A95" s="373">
         <v>45182</v>
       </c>
       <c r="B95" s="277" t="s">
@@ -45075,7 +45073,7 @@
       </c>
     </row>
     <row r="96" spans="1:21">
-      <c r="A96" s="385">
+      <c r="A96" s="373">
         <v>45183</v>
       </c>
       <c r="B96" s="277" t="s">
@@ -45136,7 +45134,7 @@
       </c>
     </row>
     <row r="97" spans="1:21">
-      <c r="A97" s="385">
+      <c r="A97" s="373">
         <v>45184</v>
       </c>
       <c r="B97" s="277" t="s">
@@ -45197,7 +45195,7 @@
       </c>
     </row>
     <row r="98" spans="1:21">
-      <c r="A98" s="385">
+      <c r="A98" s="373">
         <v>45187</v>
       </c>
       <c r="B98" s="277" t="s">
@@ -45258,7 +45256,7 @@
       </c>
     </row>
     <row r="99" spans="1:21">
-      <c r="A99" s="385">
+      <c r="A99" s="373">
         <v>45188</v>
       </c>
       <c r="B99" s="277" t="s">
@@ -45319,7 +45317,7 @@
       </c>
     </row>
     <row r="100" spans="1:21">
-      <c r="A100" s="385">
+      <c r="A100" s="373">
         <v>45189</v>
       </c>
       <c r="B100" s="277" t="s">
@@ -45380,7 +45378,7 @@
       </c>
     </row>
     <row r="101" spans="1:21">
-      <c r="A101" s="385">
+      <c r="A101" s="373">
         <v>45190</v>
       </c>
       <c r="B101" s="277" t="s">
@@ -45441,7 +45439,7 @@
       </c>
     </row>
     <row r="102" spans="1:21">
-      <c r="A102" s="385">
+      <c r="A102" s="373">
         <v>45191</v>
       </c>
       <c r="B102" s="277" t="s">
@@ -45502,7 +45500,7 @@
       </c>
     </row>
     <row r="103" spans="1:21">
-      <c r="A103" s="385">
+      <c r="A103" s="373">
         <v>45194</v>
       </c>
       <c r="B103" s="277" t="s">
@@ -45563,7 +45561,7 @@
       </c>
     </row>
     <row r="104" spans="1:21">
-      <c r="A104" s="385">
+      <c r="A104" s="373">
         <v>45195</v>
       </c>
       <c r="B104" s="277" t="s">
@@ -45624,7 +45622,7 @@
       </c>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="385">
+      <c r="A105" s="373">
         <v>45196</v>
       </c>
       <c r="B105" s="277" t="s">
@@ -45685,7 +45683,7 @@
       </c>
     </row>
     <row r="106" spans="1:21">
-      <c r="A106" s="385">
+      <c r="A106" s="373">
         <v>45197</v>
       </c>
       <c r="B106" s="277" t="s">
@@ -45746,7 +45744,7 @@
       </c>
     </row>
     <row r="107" spans="1:21">
-      <c r="A107" s="385">
+      <c r="A107" s="373">
         <v>45198</v>
       </c>
       <c r="B107" s="277" t="s">
@@ -45807,7 +45805,7 @@
       </c>
     </row>
     <row r="108" spans="1:21">
-      <c r="A108" s="385">
+      <c r="A108" s="373">
         <v>45201</v>
       </c>
       <c r="B108" s="277" t="s">
@@ -45868,7 +45866,7 @@
       </c>
     </row>
     <row r="109" spans="1:21">
-      <c r="A109" s="385">
+      <c r="A109" s="373">
         <v>45202</v>
       </c>
       <c r="B109" s="277" t="s">
@@ -45929,7 +45927,7 @@
       </c>
     </row>
     <row r="110" spans="1:21">
-      <c r="A110" s="385">
+      <c r="A110" s="373">
         <v>45203</v>
       </c>
       <c r="B110" s="277" t="s">
@@ -45990,7 +45988,7 @@
       </c>
     </row>
     <row r="111" spans="1:21">
-      <c r="A111" s="385">
+      <c r="A111" s="373">
         <v>45204</v>
       </c>
       <c r="B111" s="277" t="s">
@@ -46051,7 +46049,7 @@
       </c>
     </row>
     <row r="112" spans="1:21">
-      <c r="A112" s="385">
+      <c r="A112" s="373">
         <v>45205</v>
       </c>
       <c r="B112" s="277" t="s">
@@ -46112,7 +46110,7 @@
       </c>
     </row>
     <row r="113" spans="1:21">
-      <c r="A113" s="385">
+      <c r="A113" s="373">
         <v>45208</v>
       </c>
       <c r="B113" s="277" t="s">
@@ -46173,7 +46171,7 @@
       </c>
     </row>
     <row r="114" spans="1:21">
-      <c r="A114" s="385">
+      <c r="A114" s="373">
         <v>45209</v>
       </c>
       <c r="B114" s="277" t="s">
@@ -46234,7 +46232,7 @@
       </c>
     </row>
     <row r="115" spans="1:21">
-      <c r="A115" s="385">
+      <c r="A115" s="373">
         <v>45210</v>
       </c>
       <c r="B115" s="277" t="s">
@@ -46295,7 +46293,7 @@
       </c>
     </row>
     <row r="116" spans="1:21">
-      <c r="A116" s="385">
+      <c r="A116" s="373">
         <v>45211</v>
       </c>
       <c r="B116" s="277" t="s">
@@ -46356,7 +46354,7 @@
       </c>
     </row>
     <row r="117" spans="1:21">
-      <c r="A117" s="385">
+      <c r="A117" s="373">
         <v>45212</v>
       </c>
       <c r="B117" s="277" t="s">
@@ -46417,7 +46415,7 @@
       </c>
     </row>
     <row r="118" spans="1:21">
-      <c r="A118" s="385">
+      <c r="A118" s="373">
         <v>45215</v>
       </c>
       <c r="B118" s="277" t="s">
@@ -46478,7 +46476,7 @@
       </c>
     </row>
     <row r="119" spans="1:21">
-      <c r="A119" s="385">
+      <c r="A119" s="373">
         <v>45216</v>
       </c>
       <c r="B119" s="277" t="s">
@@ -46539,7 +46537,7 @@
       </c>
     </row>
     <row r="120" spans="1:21">
-      <c r="A120" s="385">
+      <c r="A120" s="373">
         <v>45217</v>
       </c>
       <c r="B120" s="277" t="s">
@@ -46600,7 +46598,7 @@
       </c>
     </row>
     <row r="121" spans="1:21">
-      <c r="A121" s="385">
+      <c r="A121" s="373">
         <v>45218</v>
       </c>
       <c r="B121" s="277" t="s">
@@ -46661,7 +46659,7 @@
       </c>
     </row>
     <row r="122" spans="1:21">
-      <c r="A122" s="385">
+      <c r="A122" s="373">
         <v>45219</v>
       </c>
       <c r="B122" s="277" t="s">
@@ -46722,7 +46720,7 @@
       </c>
     </row>
     <row r="123" spans="1:21">
-      <c r="A123" s="385">
+      <c r="A123" s="373">
         <v>45222</v>
       </c>
       <c r="B123" s="277" t="s">
@@ -46783,7 +46781,7 @@
       </c>
     </row>
     <row r="124" spans="1:21">
-      <c r="A124" s="385">
+      <c r="A124" s="373">
         <v>45223</v>
       </c>
       <c r="B124" s="277" t="s">
@@ -46844,7 +46842,7 @@
       </c>
     </row>
     <row r="125" spans="1:21">
-      <c r="A125" s="385">
+      <c r="A125" s="373">
         <v>45224</v>
       </c>
       <c r="B125" s="277" t="s">
@@ -46905,7 +46903,7 @@
       </c>
     </row>
     <row r="126" spans="1:21">
-      <c r="A126" s="385">
+      <c r="A126" s="373">
         <v>45225</v>
       </c>
       <c r="B126" s="277" t="s">
@@ -46966,7 +46964,7 @@
       </c>
     </row>
     <row r="127" spans="1:21">
-      <c r="A127" s="385">
+      <c r="A127" s="373">
         <v>45226</v>
       </c>
       <c r="B127" s="277" t="s">
@@ -47027,7 +47025,7 @@
       </c>
     </row>
     <row r="128" spans="1:21">
-      <c r="A128" s="385">
+      <c r="A128" s="373">
         <v>45229</v>
       </c>
       <c r="B128" s="277" t="s">
@@ -47088,7 +47086,7 @@
       </c>
     </row>
     <row r="129" spans="1:21">
-      <c r="A129" s="385">
+      <c r="A129" s="373">
         <v>45230</v>
       </c>
       <c r="B129" s="277" t="s">
@@ -47149,7 +47147,7 @@
       </c>
     </row>
     <row r="130" spans="1:21">
-      <c r="A130" s="385">
+      <c r="A130" s="373">
         <v>45231</v>
       </c>
       <c r="B130" s="277" t="s">
@@ -47210,7 +47208,7 @@
       </c>
     </row>
     <row r="131" spans="1:21">
-      <c r="A131" s="385">
+      <c r="A131" s="373">
         <v>45232</v>
       </c>
       <c r="B131" s="277" t="s">
@@ -47271,7 +47269,7 @@
       </c>
     </row>
     <row r="132" spans="1:21">
-      <c r="A132" s="385">
+      <c r="A132" s="373">
         <v>45233</v>
       </c>
       <c r="B132" s="277" t="s">
@@ -47332,7 +47330,7 @@
       </c>
     </row>
     <row r="133" spans="1:21">
-      <c r="A133" s="385">
+      <c r="A133" s="373">
         <v>45236</v>
       </c>
       <c r="B133" s="277" t="s">
@@ -47393,7 +47391,7 @@
       </c>
     </row>
     <row r="134" spans="1:21">
-      <c r="A134" s="385">
+      <c r="A134" s="373">
         <v>45237</v>
       </c>
       <c r="B134" s="277" t="s">
@@ -47454,7 +47452,7 @@
       </c>
     </row>
     <row r="135" spans="1:21">
-      <c r="A135" s="385">
+      <c r="A135" s="373">
         <v>45238</v>
       </c>
       <c r="B135" s="277" t="s">
@@ -47515,7 +47513,7 @@
       </c>
     </row>
     <row r="136" spans="1:21">
-      <c r="A136" s="385">
+      <c r="A136" s="373">
         <v>45239</v>
       </c>
       <c r="B136" s="277" t="s">
@@ -47576,7 +47574,7 @@
       </c>
     </row>
     <row r="137" spans="1:21">
-      <c r="A137" s="385">
+      <c r="A137" s="373">
         <v>45240</v>
       </c>
       <c r="B137" s="277" t="s">
@@ -47637,7 +47635,7 @@
       </c>
     </row>
     <row r="138" spans="1:21">
-      <c r="A138" s="385">
+      <c r="A138" s="373">
         <v>45243</v>
       </c>
       <c r="B138" s="277" t="s">
@@ -47698,7 +47696,7 @@
       </c>
     </row>
     <row r="139" spans="1:21">
-      <c r="A139" s="385">
+      <c r="A139" s="373">
         <v>45244</v>
       </c>
       <c r="B139" s="277" t="s">
@@ -47759,7 +47757,7 @@
       </c>
     </row>
     <row r="140" spans="1:21">
-      <c r="A140" s="385">
+      <c r="A140" s="373">
         <v>45245</v>
       </c>
       <c r="B140" s="277" t="s">
@@ -47820,7 +47818,7 @@
       </c>
     </row>
     <row r="141" spans="1:21">
-      <c r="A141" s="385">
+      <c r="A141" s="373">
         <v>45246</v>
       </c>
       <c r="B141" s="277" t="s">
@@ -47881,7 +47879,7 @@
       </c>
     </row>
     <row r="142" spans="1:21">
-      <c r="A142" s="385">
+      <c r="A142" s="373">
         <v>45247</v>
       </c>
       <c r="B142" s="277" t="s">
@@ -47942,7 +47940,7 @@
       </c>
     </row>
     <row r="143" spans="1:21">
-      <c r="A143" s="385">
+      <c r="A143" s="373">
         <v>45250</v>
       </c>
       <c r="B143" s="277" t="s">
@@ -48003,7 +48001,7 @@
       </c>
     </row>
     <row r="144" spans="1:21">
-      <c r="A144" s="385">
+      <c r="A144" s="373">
         <v>45251</v>
       </c>
       <c r="B144" s="277" t="s">
@@ -48064,7 +48062,7 @@
       </c>
     </row>
     <row r="145" spans="1:21">
-      <c r="A145" s="385">
+      <c r="A145" s="373">
         <v>45252</v>
       </c>
       <c r="B145" s="277" t="s">
@@ -48125,7 +48123,7 @@
       </c>
     </row>
     <row r="146" spans="1:21">
-      <c r="A146" s="385">
+      <c r="A146" s="373">
         <v>45253</v>
       </c>
       <c r="B146" s="277" t="s">
@@ -48186,7 +48184,7 @@
       </c>
     </row>
     <row r="147" spans="1:21">
-      <c r="A147" s="385">
+      <c r="A147" s="373">
         <v>45254</v>
       </c>
       <c r="B147" s="277" t="s">

--- a/Portfolio_20231124 - Copyright.xlsx
+++ b/Portfolio_20231124 - Copyright.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibf_pmp3\Documents\Managers 23_24\Xuanzhe\20231124\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4946C389-11D8-4A9D-AD13-AC57E35C44EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ACC81A-BF15-4C4A-8AD3-FB8A497407F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="837" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="837" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="15" r:id="rId1"/>
@@ -23054,12 +23054,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="T14" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31:G34"/>
+      <selection pane="bottomRight" activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -26651,7 +26651,7 @@
         <v>300</v>
       </c>
       <c r="C38" s="156">
-        <v>1695031.6829642737</v>
+        <v>1690886.6829642737</v>
       </c>
       <c r="D38" s="32"/>
       <c r="L38" s="115"/>
@@ -26765,12 +26765,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I646"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C625" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B628" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1:AK1048576"/>
+      <selection pane="bottomRight" activeCell="B646" sqref="B646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -38519,26 +38519,26 @@
         <v>45254</v>
       </c>
       <c r="B646" s="75">
-        <v>1695031.68</v>
+        <v>1695031.6829642737</v>
       </c>
       <c r="D646" s="75">
         <v>1689168</v>
       </c>
       <c r="E646" s="75">
         <f t="shared" si="11"/>
-        <v>5863.6799999999348</v>
+        <v>5863.6829642737284</v>
       </c>
       <c r="F646" s="234">
         <f t="shared" si="12"/>
-        <v>-2.6673941625855457E-3</v>
+        <v>-2.6673924184488218E-3</v>
       </c>
       <c r="G646" s="158">
         <f t="shared" si="13"/>
-        <v>7.1056841763010192E-2</v>
+        <v>7.1056843636076117E-2</v>
       </c>
       <c r="H646" s="75">
         <f t="shared" si="14"/>
-        <v>107.10568417630103</v>
+        <v>107.10568436360761</v>
       </c>
       <c r="I646" s="75">
         <f t="shared" si="15"/>
